--- a/src/main/java/com/nc/qa/testData/TestData.xlsx
+++ b/src/main/java/com/nc/qa/testData/TestData.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="CustomerData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="EditCustomerData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Password</t>
   </si>
@@ -43,16 +43,10 @@
     <t>Singh</t>
   </si>
   <si>
-    <t>Rohit</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Accenture</t>
-  </si>
-  <si>
     <t>IBM</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -421,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,30 +461,12 @@
         <v>33039</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>33795</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,12 +474,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
